--- a/Src/Results_insertion/output_insertion_high_[1, 2]_0.xlsx
+++ b/Src/Results_insertion/output_insertion_high_[1, 2]_0.xlsx
@@ -554,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0003268718719482422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -742,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.001269340515136719</v>
       </c>
     </row>
     <row r="7">
@@ -977,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02123928070068359</v>
+        <v>0.03039073944091797</v>
       </c>
     </row>
     <row r="12">
@@ -1024,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01009345054626465</v>
+        <v>0.0157017707824707</v>
       </c>
     </row>
     <row r="13">
@@ -1071,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.01247143745422363</v>
       </c>
     </row>
     <row r="14">
@@ -1118,7 +1118,7 @@
         <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03748655319213867</v>
+        <v>0.03470206260681152</v>
       </c>
     </row>
     <row r="15">
@@ -1165,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>0.002999782562255859</v>
       </c>
     </row>
     <row r="16">
@@ -1259,7 +1259,7 @@
         <v>12</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.001062393188476562</v>
       </c>
     </row>
     <row r="18">
@@ -1306,7 +1306,7 @@
         <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02877283096313477</v>
+        <v>0.03235220909118652</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>0.008062124252319336</v>
+        <v>0.02439498901367188</v>
       </c>
     </row>
     <row r="20">
@@ -1447,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.001807928085327148</v>
       </c>
     </row>
     <row r="22">
@@ -1588,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01563119888305664</v>
+        <v>0.0006709098815917969</v>
       </c>
     </row>
     <row r="25">
@@ -1635,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01714015007019043</v>
+        <v>0.0319511890411377</v>
       </c>
     </row>
     <row r="26">
@@ -1682,7 +1682,7 @@
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>0.04889726638793945</v>
+        <v>0.03786134719848633</v>
       </c>
     </row>
     <row r="27">
@@ -1776,7 +1776,7 @@
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>0.001869678497314453</v>
+        <v>0.01002025604248047</v>
       </c>
     </row>
     <row r="29">
@@ -1870,7 +1870,7 @@
         <v>16</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>0.002600193023681641</v>
       </c>
     </row>
     <row r="31">
@@ -2011,7 +2011,7 @@
         <v>19</v>
       </c>
       <c r="O33" t="n">
-        <v>0.002985954284667969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2058,7 +2058,7 @@
         <v>19</v>
       </c>
       <c r="O34" t="n">
-        <v>5.859745264053345</v>
+        <v>6.898502588272095</v>
       </c>
     </row>
     <row r="35">
@@ -2105,7 +2105,7 @@
         <v>19</v>
       </c>
       <c r="O35" t="n">
-        <v>0.07133340835571289</v>
+        <v>0.108687162399292</v>
       </c>
     </row>
     <row r="36">
@@ -2152,7 +2152,7 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>0.002005100250244141</v>
       </c>
     </row>
     <row r="37">
@@ -2199,7 +2199,7 @@
         <v>20</v>
       </c>
       <c r="O37" t="n">
-        <v>0.5773341655731201</v>
+        <v>0.8772985935211182</v>
       </c>
     </row>
     <row r="38">
@@ -2246,7 +2246,7 @@
         <v>20</v>
       </c>
       <c r="O38" t="n">
-        <v>0.1513974666595459</v>
+        <v>0.1683557033538818</v>
       </c>
     </row>
     <row r="39">
@@ -2293,7 +2293,7 @@
         <v>20</v>
       </c>
       <c r="O39" t="n">
-        <v>0.1158649921417236</v>
+        <v>0.1531956195831299</v>
       </c>
     </row>
     <row r="40">
@@ -2340,7 +2340,7 @@
         <v>20</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>0.003763198852539062</v>
       </c>
     </row>
     <row r="41">
@@ -2387,7 +2387,7 @@
         <v>21</v>
       </c>
       <c r="O41" t="n">
-        <v>0.005545139312744141</v>
+        <v>0.005013704299926758</v>
       </c>
     </row>
     <row r="42">
@@ -2434,7 +2434,7 @@
         <v>20</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>0.003263473510742188</v>
       </c>
     </row>
     <row r="43">
@@ -2481,7 +2481,7 @@
         <v>20</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0727992057800293</v>
+        <v>0.1390199661254883</v>
       </c>
     </row>
     <row r="44">
@@ -2528,7 +2528,7 @@
         <v>20</v>
       </c>
       <c r="O44" t="n">
-        <v>0.1225655078887939</v>
+        <v>0.1347277164459229</v>
       </c>
     </row>
     <row r="45">
@@ -2575,7 +2575,7 @@
         <v>17</v>
       </c>
       <c r="O45" t="n">
-        <v>0.09228086471557617</v>
+        <v>0.1537575721740723</v>
       </c>
     </row>
     <row r="46">
@@ -2622,7 +2622,7 @@
         <v>17</v>
       </c>
       <c r="O46" t="n">
-        <v>0.08385896682739258</v>
+        <v>0.1164121627807617</v>
       </c>
     </row>
     <row r="47">
@@ -2669,7 +2669,7 @@
         <v>17</v>
       </c>
       <c r="O47" t="n">
-        <v>0.07874727249145508</v>
+        <v>0.1105556488037109</v>
       </c>
     </row>
     <row r="48">
@@ -2716,7 +2716,7 @@
         <v>17</v>
       </c>
       <c r="O48" t="n">
-        <v>0.08530378341674805</v>
+        <v>0.08990836143493652</v>
       </c>
     </row>
     <row r="49">
@@ -2763,7 +2763,7 @@
         <v>18</v>
       </c>
       <c r="O49" t="n">
-        <v>0.01636672019958496</v>
+        <v>0.02728581428527832</v>
       </c>
     </row>
     <row r="50">
@@ -2810,7 +2810,7 @@
         <v>15</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>0.002504825592041016</v>
       </c>
     </row>
     <row r="51">
@@ -2857,7 +2857,7 @@
         <v>16</v>
       </c>
       <c r="O51" t="n">
-        <v>0.02213382720947266</v>
+        <v>0.001003026962280273</v>
       </c>
     </row>
     <row r="52">
@@ -2904,7 +2904,7 @@
         <v>16</v>
       </c>
       <c r="O52" t="n">
-        <v>0.04864501953125</v>
+        <v>0.0659325122833252</v>
       </c>
     </row>
     <row r="53">
@@ -2951,7 +2951,7 @@
         <v>17</v>
       </c>
       <c r="O53" t="n">
-        <v>0.01772356033325195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3045,7 +3045,7 @@
         <v>14</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>0.004694938659667969</v>
       </c>
     </row>
     <row r="56">
@@ -3139,7 +3139,7 @@
         <v>15</v>
       </c>
       <c r="O57" t="n">
-        <v>0.009509801864624023</v>
+        <v>0.01651144027709961</v>
       </c>
     </row>
     <row r="58">
@@ -3186,7 +3186,7 @@
         <v>16</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>0.01616024971008301</v>
       </c>
     </row>
     <row r="59">
@@ -3233,7 +3233,7 @@
         <v>16</v>
       </c>
       <c r="O59" t="n">
-        <v>0.05535531044006348</v>
+        <v>0.06256008148193359</v>
       </c>
     </row>
     <row r="60">
@@ -3280,7 +3280,7 @@
         <v>16</v>
       </c>
       <c r="O60" t="n">
-        <v>0.02016210556030273</v>
+        <v>0.04228949546813965</v>
       </c>
     </row>
     <row r="61">
@@ -3327,7 +3327,7 @@
         <v>14</v>
       </c>
       <c r="O61" t="n">
-        <v>0.01905393600463867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3374,7 +3374,7 @@
         <v>14</v>
       </c>
       <c r="O62" t="n">
-        <v>0.02772617340087891</v>
+        <v>0.03123855590820312</v>
       </c>
     </row>
     <row r="63">
@@ -3421,7 +3421,7 @@
         <v>15</v>
       </c>
       <c r="O63" t="n">
-        <v>0.02621173858642578</v>
+        <v>0.004289627075195312</v>
       </c>
     </row>
     <row r="64">
@@ -3468,7 +3468,7 @@
         <v>15</v>
       </c>
       <c r="O64" t="n">
-        <v>0.03274035453796387</v>
+        <v>0.05036377906799316</v>
       </c>
     </row>
     <row r="65">
@@ -3515,7 +3515,7 @@
         <v>14</v>
       </c>
       <c r="O65" t="n">
-        <v>0.2317967414855957</v>
+        <v>0.262686014175415</v>
       </c>
     </row>
     <row r="66">
@@ -3562,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="O66" t="n">
-        <v>0.04175925254821777</v>
+        <v>0.0741569995880127</v>
       </c>
     </row>
     <row r="67">
@@ -3609,7 +3609,7 @@
         <v>13</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>0.01680517196655273</v>
       </c>
     </row>
     <row r="68">
@@ -3656,7 +3656,7 @@
         <v>14</v>
       </c>
       <c r="O68" t="n">
-        <v>0.01009416580200195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3703,7 +3703,7 @@
         <v>14</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>0.0004804134368896484</v>
       </c>
     </row>
     <row r="70">
@@ -3797,7 +3797,7 @@
         <v>14</v>
       </c>
       <c r="O71" t="n">
-        <v>9.785510301589966</v>
+        <v>11.95888018608093</v>
       </c>
     </row>
     <row r="72">
@@ -3844,7 +3844,7 @@
         <v>17</v>
       </c>
       <c r="O72" t="n">
-        <v>19.43752932548523</v>
+        <v>25.44644594192505</v>
       </c>
     </row>
     <row r="73">
@@ -3891,7 +3891,7 @@
         <v>16</v>
       </c>
       <c r="O73" t="n">
-        <v>0.1810226440429688</v>
+        <v>0.2148764133453369</v>
       </c>
     </row>
     <row r="74">
@@ -3938,7 +3938,7 @@
         <v>16</v>
       </c>
       <c r="O74" t="n">
-        <v>0.08345293998718262</v>
+        <v>0.1177046298980713</v>
       </c>
     </row>
     <row r="75">
@@ -3985,7 +3985,7 @@
         <v>16</v>
       </c>
       <c r="O75" t="n">
-        <v>0.03383016586303711</v>
+        <v>0.0665290355682373</v>
       </c>
     </row>
     <row r="76">
@@ -4032,7 +4032,7 @@
         <v>12</v>
       </c>
       <c r="O76" t="n">
-        <v>0.05988812446594238</v>
+        <v>0.08156180381774902</v>
       </c>
     </row>
     <row r="77">
@@ -4079,7 +4079,7 @@
         <v>13</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>0.004179239273071289</v>
       </c>
     </row>
     <row r="78">
@@ -4173,7 +4173,7 @@
         <v>15</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02915310859680176</v>
+        <v>0.04972338676452637</v>
       </c>
     </row>
     <row r="80">
@@ -4220,7 +4220,7 @@
         <v>16</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>0.007565021514892578</v>
       </c>
     </row>
     <row r="81">
@@ -4267,7 +4267,7 @@
         <v>18</v>
       </c>
       <c r="O81" t="n">
-        <v>0.3179318904876709</v>
+        <v>0.3901727199554443</v>
       </c>
     </row>
     <row r="82">
@@ -4314,7 +4314,7 @@
         <v>15</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0875251293182373</v>
+        <v>0.1012170314788818</v>
       </c>
     </row>
     <row r="83">
@@ -4361,7 +4361,7 @@
         <v>13</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0566246509552002</v>
+        <v>0.09713125228881836</v>
       </c>
     </row>
     <row r="84">
@@ -4408,7 +4408,7 @@
         <v>13</v>
       </c>
       <c r="O84" t="n">
-        <v>1.348711490631104</v>
+        <v>1.490601539611816</v>
       </c>
     </row>
     <row r="85">
@@ -4455,7 +4455,7 @@
         <v>13</v>
       </c>
       <c r="O85" t="n">
-        <v>0.04103541374206543</v>
+        <v>0.06674647331237793</v>
       </c>
     </row>
     <row r="86">
@@ -4549,7 +4549,7 @@
         <v>13</v>
       </c>
       <c r="O87" t="n">
-        <v>0.05034351348876953</v>
+        <v>0.06664490699768066</v>
       </c>
     </row>
     <row r="88">
@@ -4596,7 +4596,7 @@
         <v>13</v>
       </c>
       <c r="O88" t="n">
-        <v>0.09647917747497559</v>
+        <v>0.108468770980835</v>
       </c>
     </row>
     <row r="89">
@@ -4643,7 +4643,7 @@
         <v>13</v>
       </c>
       <c r="O89" t="n">
-        <v>0.05003929138183594</v>
+        <v>0.09443116188049316</v>
       </c>
     </row>
     <row r="90">
@@ -4690,7 +4690,7 @@
         <v>13</v>
       </c>
       <c r="O90" t="n">
-        <v>6.246088027954102</v>
+        <v>8.243488788604736</v>
       </c>
     </row>
     <row r="91">
@@ -4737,7 +4737,7 @@
         <v>14</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0704042911529541</v>
+        <v>0.05160951614379883</v>
       </c>
     </row>
     <row r="92">
@@ -4784,7 +4784,7 @@
         <v>15</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>0.004177331924438477</v>
       </c>
     </row>
     <row r="93">
@@ -4831,7 +4831,7 @@
         <v>16</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>0.02486920356750488</v>
       </c>
     </row>
     <row r="94">
@@ -4878,7 +4878,7 @@
         <v>17</v>
       </c>
       <c r="O94" t="n">
-        <v>0.001606225967407227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -4925,7 +4925,7 @@
         <v>18</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>0.01563715934753418</v>
       </c>
     </row>
     <row r="96">
@@ -4972,7 +4972,7 @@
         <v>19</v>
       </c>
       <c r="O96" t="n">
-        <v>0.2961978912353516</v>
+        <v>0.3589973449707031</v>
       </c>
     </row>
     <row r="97">
@@ -5019,7 +5019,7 @@
         <v>19</v>
       </c>
       <c r="O97" t="n">
-        <v>0.08505868911743164</v>
+        <v>0.1582858562469482</v>
       </c>
     </row>
     <row r="98">
@@ -5066,7 +5066,7 @@
         <v>19</v>
       </c>
       <c r="O98" t="n">
-        <v>0.06617999076843262</v>
+        <v>0.09331226348876953</v>
       </c>
     </row>
     <row r="99">
@@ -5113,7 +5113,7 @@
         <v>19</v>
       </c>
       <c r="O99" t="n">
-        <v>0.08883953094482422</v>
+        <v>0.09979391098022461</v>
       </c>
     </row>
     <row r="100">
@@ -5160,7 +5160,7 @@
         <v>19</v>
       </c>
       <c r="O100" t="n">
-        <v>0.07732200622558594</v>
+        <v>0.07330727577209473</v>
       </c>
     </row>
     <row r="101">
@@ -5207,7 +5207,7 @@
         <v>20</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0005202293395996094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5301,7 +5301,7 @@
         <v>16</v>
       </c>
       <c r="O103" t="n">
-        <v>0.01813435554504395</v>
+        <v>0.009509563446044922</v>
       </c>
     </row>
     <row r="104">
@@ -5348,7 +5348,7 @@
         <v>16</v>
       </c>
       <c r="O104" t="n">
-        <v>11.66970062255859</v>
+        <v>17.05698871612549</v>
       </c>
     </row>
     <row r="105">
@@ -5395,7 +5395,7 @@
         <v>13</v>
       </c>
       <c r="O105" t="n">
-        <v>0.05451083183288574</v>
+        <v>0.06062889099121094</v>
       </c>
     </row>
     <row r="106">
@@ -5442,7 +5442,7 @@
         <v>13</v>
       </c>
       <c r="O106" t="n">
-        <v>0.05381417274475098</v>
+        <v>0.06898951530456543</v>
       </c>
     </row>
     <row r="107">
@@ -5489,7 +5489,7 @@
         <v>10</v>
       </c>
       <c r="O107" t="n">
-        <v>0.04524779319763184</v>
+        <v>0.1340494155883789</v>
       </c>
     </row>
     <row r="108">
@@ -5536,7 +5536,7 @@
         <v>11</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>0.0006802082061767578</v>
       </c>
     </row>
     <row r="109">
@@ -5583,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0009996891021728516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -5630,7 +5630,7 @@
         <v>12</v>
       </c>
       <c r="O110" t="n">
-        <v>0.04259681701660156</v>
+        <v>0.02241897583007812</v>
       </c>
     </row>
     <row r="111">
@@ -5677,7 +5677,7 @@
         <v>12</v>
       </c>
       <c r="O111" t="n">
-        <v>0.02106165885925293</v>
+        <v>0.04070329666137695</v>
       </c>
     </row>
     <row r="112">
@@ -5724,7 +5724,7 @@
         <v>12</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0166933536529541</v>
+        <v>0.07308864593505859</v>
       </c>
     </row>
     <row r="113">
@@ -5771,7 +5771,7 @@
         <v>12</v>
       </c>
       <c r="O113" t="n">
-        <v>0.02261900901794434</v>
+        <v>0.02842450141906738</v>
       </c>
     </row>
     <row r="114">
@@ -5818,7 +5818,7 @@
         <v>12</v>
       </c>
       <c r="O114" t="n">
-        <v>0.01407527923583984</v>
+        <v>0.02129507064819336</v>
       </c>
     </row>
     <row r="115">
@@ -5865,7 +5865,7 @@
         <v>11</v>
       </c>
       <c r="O115" t="n">
-        <v>0.02326560020446777</v>
+        <v>0.0165705680847168</v>
       </c>
     </row>
     <row r="116">
@@ -5912,7 +5912,7 @@
         <v>8</v>
       </c>
       <c r="O116" t="n">
-        <v>0.02466964721679688</v>
+        <v>0.02194476127624512</v>
       </c>
     </row>
     <row r="117">
@@ -5959,7 +5959,7 @@
         <v>8</v>
       </c>
       <c r="O117" t="n">
-        <v>0.01690506935119629</v>
+        <v>0.03135347366333008</v>
       </c>
     </row>
     <row r="118">
@@ -6147,7 +6147,7 @@
         <v>8</v>
       </c>
       <c r="O121" t="n">
-        <v>0</v>
+        <v>0.001670598983764648</v>
       </c>
     </row>
     <row r="122">
@@ -6194,7 +6194,7 @@
         <v>8</v>
       </c>
       <c r="O122" t="n">
-        <v>0.03288435935974121</v>
+        <v>0.07932186126708984</v>
       </c>
     </row>
     <row r="123">
@@ -6335,7 +6335,7 @@
         <v>7</v>
       </c>
       <c r="O125" t="n">
-        <v>0.001012563705444336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -6382,7 +6382,7 @@
         <v>7</v>
       </c>
       <c r="O126" t="n">
-        <v>0.01567935943603516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -6429,7 +6429,7 @@
         <v>8</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0007851123809814453</v>
+        <v>0.001067876815795898</v>
       </c>
     </row>
     <row r="128">
@@ -6523,7 +6523,7 @@
         <v>9</v>
       </c>
       <c r="O129" t="n">
-        <v>0.001861572265625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -6570,7 +6570,7 @@
         <v>5</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>0.001007556915283203</v>
       </c>
     </row>
     <row r="131">
@@ -6664,7 +6664,7 @@
         <v>7</v>
       </c>
       <c r="O132" t="n">
-        <v>0</v>
+        <v>0.003516912460327148</v>
       </c>
     </row>
     <row r="133">
@@ -6711,7 +6711,7 @@
         <v>8</v>
       </c>
       <c r="O133" t="n">
-        <v>0.01578497886657715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -6758,7 +6758,7 @@
         <v>7</v>
       </c>
       <c r="O134" t="n">
-        <v>0</v>
+        <v>0.001000165939331055</v>
       </c>
     </row>
     <row r="135">
@@ -6805,7 +6805,7 @@
         <v>8</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0009582042694091797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -6852,7 +6852,7 @@
         <v>9</v>
       </c>
       <c r="O136" t="n">
-        <v>0.001016855239868164</v>
+        <v>0.01550555229187012</v>
       </c>
     </row>
     <row r="137">
@@ -6899,7 +6899,7 @@
         <v>10</v>
       </c>
       <c r="O137" t="n">
-        <v>0</v>
+        <v>0.006011724472045898</v>
       </c>
     </row>
     <row r="138">
@@ -6946,7 +6946,7 @@
         <v>10</v>
       </c>
       <c r="O138" t="n">
-        <v>0.006601572036743164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -6993,7 +6993,7 @@
         <v>11</v>
       </c>
       <c r="O139" t="n">
-        <v>0.01661157608032227</v>
+        <v>0.008244991302490234</v>
       </c>
     </row>
     <row r="140">
@@ -7134,7 +7134,7 @@
         <v>13</v>
       </c>
       <c r="O142" t="n">
-        <v>0</v>
+        <v>0.01000785827636719</v>
       </c>
     </row>
     <row r="143">
@@ -7181,7 +7181,7 @@
         <v>14</v>
       </c>
       <c r="O143" t="n">
-        <v>0.009594917297363281</v>
+        <v>0.00153040885925293</v>
       </c>
     </row>
     <row r="144">
@@ -7228,7 +7228,7 @@
         <v>14</v>
       </c>
       <c r="O144" t="n">
-        <v>0.01662445068359375</v>
+        <v>0.01700067520141602</v>
       </c>
     </row>
     <row r="145">
@@ -7275,7 +7275,7 @@
         <v>12</v>
       </c>
       <c r="O145" t="n">
-        <v>0.001093864440917969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -7416,7 +7416,7 @@
         <v>10</v>
       </c>
       <c r="O148" t="n">
-        <v>0.02010726928710938</v>
+        <v>0.03065800666809082</v>
       </c>
     </row>
     <row r="149">
@@ -7463,7 +7463,7 @@
         <v>11</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05822277069091797</v>
+        <v>0.1173393726348877</v>
       </c>
     </row>
     <row r="150">
@@ -7510,7 +7510,7 @@
         <v>11</v>
       </c>
       <c r="O150" t="n">
-        <v>1.114381790161133</v>
+        <v>1.26715612411499</v>
       </c>
     </row>
     <row r="151">
@@ -7557,7 +7557,7 @@
         <v>13</v>
       </c>
       <c r="O151" t="n">
-        <v>0.04986834526062012</v>
+        <v>0.0534825325012207</v>
       </c>
     </row>
     <row r="152">
@@ -7604,7 +7604,7 @@
         <v>12</v>
       </c>
       <c r="O152" t="n">
-        <v>0</v>
+        <v>0.0003843307495117188</v>
       </c>
     </row>
     <row r="153">
@@ -7651,7 +7651,7 @@
         <v>13</v>
       </c>
       <c r="O153" t="n">
-        <v>0</v>
+        <v>0.0009455680847167969</v>
       </c>
     </row>
     <row r="154">
@@ -7698,7 +7698,7 @@
         <v>14</v>
       </c>
       <c r="O154" t="n">
-        <v>0</v>
+        <v>0.002998590469360352</v>
       </c>
     </row>
     <row r="155">
@@ -7745,7 +7745,7 @@
         <v>15</v>
       </c>
       <c r="O155" t="n">
-        <v>0.006098508834838867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -7792,7 +7792,7 @@
         <v>16</v>
       </c>
       <c r="O156" t="n">
-        <v>0</v>
+        <v>0.0115058422088623</v>
       </c>
     </row>
     <row r="157">
@@ -7839,7 +7839,7 @@
         <v>17</v>
       </c>
       <c r="O157" t="n">
-        <v>0.006107091903686523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -7933,7 +7933,7 @@
         <v>19</v>
       </c>
       <c r="O159" t="n">
-        <v>0.02412199974060059</v>
+        <v>0.03674674034118652</v>
       </c>
     </row>
     <row r="160">
@@ -7980,7 +7980,7 @@
         <v>19</v>
       </c>
       <c r="O160" t="n">
-        <v>0.001795053482055664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -8027,7 +8027,7 @@
         <v>17</v>
       </c>
       <c r="O161" t="n">
-        <v>0</v>
+        <v>0.01563405990600586</v>
       </c>
     </row>
     <row r="162">
@@ -8074,7 +8074,7 @@
         <v>18</v>
       </c>
       <c r="O162" t="n">
-        <v>0.007203102111816406</v>
+        <v>0.006996631622314453</v>
       </c>
     </row>
     <row r="163">
@@ -8168,7 +8168,7 @@
         <v>19</v>
       </c>
       <c r="O164" t="n">
-        <v>0.02372956275939941</v>
+        <v>0.04327082633972168</v>
       </c>
     </row>
     <row r="165">
@@ -8215,7 +8215,7 @@
         <v>17</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0150909423828125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -8262,7 +8262,7 @@
         <v>17</v>
       </c>
       <c r="O166" t="n">
-        <v>0.03300571441650391</v>
+        <v>0.0218353271484375</v>
       </c>
     </row>
     <row r="167">
@@ -8309,7 +8309,7 @@
         <v>17</v>
       </c>
       <c r="O167" t="n">
-        <v>0.04768204689025879</v>
+        <v>0.06928706169128418</v>
       </c>
     </row>
     <row r="168">
@@ -8403,7 +8403,7 @@
         <v>17</v>
       </c>
       <c r="O169" t="n">
-        <v>0.01851677894592285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -8450,7 +8450,7 @@
         <v>17</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0168907642364502</v>
+        <v>0.03306221961975098</v>
       </c>
     </row>
     <row r="171">
@@ -8497,7 +8497,7 @@
         <v>18</v>
       </c>
       <c r="O171" t="n">
-        <v>0.01659917831420898</v>
+        <v>0.01563572883605957</v>
       </c>
     </row>
     <row r="172">
@@ -8544,7 +8544,7 @@
         <v>14</v>
       </c>
       <c r="O172" t="n">
-        <v>0.01668930053710938</v>
+        <v>0.03587007522583008</v>
       </c>
     </row>
     <row r="173">
